--- a/data/outputs/OR_elsevier/8.xlsx
+++ b/data/outputs/OR_elsevier/8.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS26"/>
+  <dimension ref="A1:BU26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -931,6 +941,12 @@
           <t>2-s2.0-84942991757</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1147,6 +1163,12 @@
         <is>
           <t>2-s2.0-84942984585</t>
         </is>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1357,6 +1379,12 @@
           <t>2-s2.0-84940919127</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1577,6 +1605,12 @@
         <is>
           <t>2-s2.0-84942981215</t>
         </is>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1787,6 +1821,12 @@
           <t>2-s2.0-84942980432</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2004,6 +2044,12 @@
           <t>2-s2.0-84928707646</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2221,6 +2267,12 @@
           <t>2-s2.0-84928708519</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2438,6 +2490,12 @@
           <t>2-s2.0-84928707971</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2664,6 +2722,12 @@
         <is>
           <t>2-s2.0-84928708200</t>
         </is>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -2873,6 +2937,12 @@
         <is>
           <t>2-s2.0-84928707768</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3075,6 +3145,12 @@
           <t>2-s2.0-84939962273</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3280,6 +3356,12 @@
           <t>2-s2.0-84939968853</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3497,6 +3579,12 @@
           <t>2-s2.0-84926277531</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3714,6 +3802,12 @@
           <t>2-s2.0-84926187907</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3940,6 +4034,12 @@
         <is>
           <t>2-s2.0-84926278189</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -4150,6 +4250,12 @@
           <t>2-s2.0-84926276972</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4366,6 +4472,12 @@
         <is>
           <t>2-s2.0-84926277640</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -4576,6 +4688,12 @@
           <t>2-s2.0-84926277702</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4789,6 +4907,12 @@
           <t>2-s2.0-84926276950</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5010,6 +5134,12 @@
           <t>2-s2.0-84926277638</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5226,6 +5356,12 @@
         <is>
           <t>2-s2.0-84926277525</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -5436,6 +5572,12 @@
           <t>2-s2.0-84926278391</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5645,6 +5787,12 @@
           <t>2-s2.0-84926208791</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5854,6 +6002,12 @@
           <t>2-s2.0-84926189821</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6079,6 +6233,12 @@
           <t>2-s2.0-84926177903</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
